--- a/StructureDefinition-ext-R5-Requirements.xlsx
+++ b/StructureDefinition-ext-R5-Requirements.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Requirements.xlsx
+++ b/StructureDefinition-ext-R5-Requirements.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -390,6 +390,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.url</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -436,6 +439,9 @@
     <t>Extension.extension:version.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.version</t>
+  </si>
+  <si>
     <t>Extension.extension:version.value[x]</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.versionAlgorithm</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.value[x]</t>
@@ -500,6 +509,9 @@
     <t>Extension.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.name</t>
+  </si>
+  <si>
     <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
@@ -528,6 +540,9 @@
   </si>
   <si>
     <t>Extension.extension:title.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.title</t>
   </si>
   <si>
     <t>Extension.extension:title.value[x]</t>
@@ -561,6 +576,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -604,6 +622,9 @@
     <t>Extension.extension:experimental.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.experimental</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental.value[x]</t>
   </si>
   <si>
@@ -639,6 +660,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -673,6 +697,9 @@
     <t>Extension.extension:publisher.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.publisher</t>
+  </si>
+  <si>
     <t>Extension.extension:publisher.value[x]</t>
   </si>
   <si>
@@ -704,6 +731,9 @@
     <t>Extension.extension:contact.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.contact</t>
+  </si>
+  <si>
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
@@ -738,6 +768,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -772,6 +805,9 @@
     <t>Extension.extension:useContext.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.useContext</t>
+  </si>
+  <si>
     <t>Extension.extension:useContext.value[x]</t>
   </si>
   <si>
@@ -807,6 +843,9 @@
     <t>Extension.extension:jurisdiction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.jurisdiction</t>
+  </si>
+  <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
   </si>
   <si>
@@ -850,6 +889,9 @@
     <t>Extension.extension:purpose.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.purpose</t>
+  </si>
+  <si>
     <t>Extension.extension:purpose.value[x]</t>
   </si>
   <si>
@@ -880,6 +922,9 @@
     <t>Extension.extension:copyright.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.copyright</t>
+  </si>
+  <si>
     <t>Extension.extension:copyright.value[x]</t>
   </si>
   <si>
@@ -910,6 +955,9 @@
     <t>Extension.extension:copyrightLabel.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.copyrightLabel</t>
+  </si>
+  <si>
     <t>Extension.extension:copyrightLabel.value[x]</t>
   </si>
   <si>
@@ -938,6 +986,9 @@
   </si>
   <si>
     <t>Extension.extension:derivedFrom.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.derivedFrom</t>
   </si>
   <si>
     <t>Extension.extension:derivedFrom.value[x]</t>
@@ -971,6 +1022,9 @@
     <t>Extension.extension:reference.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.reference</t>
+  </si>
+  <si>
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
@@ -1005,6 +1059,9 @@
     <t>Extension.extension:actor.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.actor</t>
+  </si>
+  <si>
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
@@ -1072,6 +1129,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.key</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:key.value[x]</t>
   </si>
   <si>
@@ -1109,6 +1169,9 @@
     <t>Extension.extension:statement.extension:label.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.label</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:label.value[x]</t>
   </si>
   <si>
@@ -1136,6 +1199,9 @@
     <t>Extension.extension:statement.extension:conformance.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.conformance</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:conformance.value[x]</t>
   </si>
   <si>
@@ -1166,6 +1232,9 @@
     <t>Extension.extension:statement.extension:conditionality.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.conditionality</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:conditionality.value[x]</t>
   </si>
   <si>
@@ -1193,6 +1262,9 @@
     <t>Extension.extension:statement.extension:requirement.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.requirement</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:requirement.value[x]</t>
   </si>
   <si>
@@ -1220,6 +1292,9 @@
     <t>Extension.extension:statement.extension:derivedFrom.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.derivedFrom</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:derivedFrom.value[x]</t>
   </si>
   <si>
@@ -1250,6 +1325,9 @@
     <t>Extension.extension:statement.extension:parent.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.parent</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:parent.value[x]</t>
   </si>
   <si>
@@ -1280,6 +1358,9 @@
     <t>Extension.extension:statement.extension:satisfiedBy.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.satisfiedBy</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:satisfiedBy.value[x]</t>
   </si>
   <si>
@@ -1304,6 +1385,9 @@
     <t>Extension.extension:statement.extension:reference.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.reference</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:reference.value[x]</t>
   </si>
   <si>
@@ -1329,6 +1413,9 @@
   </si>
   <si>
     <t>Extension.extension:statement.extension:source.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.source</t>
   </si>
   <si>
     <t>Extension.extension:statement.extension:source.value[x]</t>
@@ -2502,7 +2589,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2544,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2559,15 +2646,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2649,7 +2736,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2661,21 +2748,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2700,16 +2787,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2778,7 +2865,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2881,7 +2968,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2986,7 +3073,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -3029,7 +3116,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3071,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3086,15 +3173,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3120,13 +3207,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3176,7 +3263,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3188,21 +3275,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3227,16 +3314,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3305,7 +3392,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3408,7 +3495,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3513,7 +3600,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3556,7 +3643,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3598,7 +3685,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3613,15 +3700,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3644,16 +3731,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3703,7 +3790,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3715,21 +3802,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3754,16 +3841,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3832,7 +3919,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3935,7 +4022,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4040,7 +4127,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4083,7 +4170,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4125,7 +4212,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4140,15 +4227,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4174,13 +4261,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4230,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4242,21 +4329,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4281,16 +4368,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4359,7 +4446,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4462,7 +4549,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4567,7 +4654,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4610,7 +4697,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4739,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4667,15 +4754,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4701,13 +4788,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4757,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4769,21 +4856,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4808,16 +4895,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4886,7 +4973,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4989,7 +5076,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5094,7 +5181,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5137,7 +5224,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5266,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5194,15 +5281,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5225,16 +5312,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5260,13 +5347,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5284,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5296,21 +5383,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5335,16 +5422,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5413,7 +5500,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5516,7 +5603,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5621,7 +5708,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5664,7 +5751,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5706,7 +5793,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5721,15 +5808,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5752,16 +5839,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5811,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5823,21 +5910,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5862,16 +5949,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5940,7 +6027,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6043,7 +6130,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6148,7 +6235,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6191,7 +6278,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6233,7 +6320,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6248,15 +6335,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6279,16 +6366,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6338,7 +6425,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6350,21 +6437,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6389,16 +6476,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6467,7 +6554,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6570,7 +6657,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6675,7 +6762,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6718,7 +6805,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6760,7 +6847,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6775,15 +6862,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6809,13 +6896,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6865,7 +6952,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6877,21 +6964,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6916,16 +7003,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6994,7 +7081,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7097,7 +7184,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7202,7 +7289,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7245,7 +7332,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7287,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7302,15 +7389,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7333,16 +7420,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7392,7 +7479,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7404,21 +7491,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7443,16 +7530,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7521,7 +7608,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7624,7 +7711,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7729,7 +7816,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7772,7 +7859,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7814,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7829,15 +7916,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7860,16 +7947,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7919,7 +8006,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7931,21 +8018,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7970,16 +8057,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8048,7 +8135,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8151,7 +8238,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8256,7 +8343,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8299,7 +8386,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8341,7 +8428,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8356,15 +8443,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8387,16 +8474,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8446,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8458,21 +8545,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8497,16 +8584,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8575,7 +8662,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8678,7 +8765,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8783,7 +8870,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8826,7 +8913,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8868,7 +8955,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8883,15 +8970,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8914,16 +9001,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8949,13 +9036,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -8973,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8985,21 +9072,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9024,16 +9111,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9102,7 +9189,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9205,7 +9292,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9310,7 +9397,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9353,7 +9440,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9395,7 +9482,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9410,15 +9497,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9441,16 +9528,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9500,7 +9587,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9512,21 +9599,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9551,16 +9638,16 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9629,7 +9716,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9732,7 +9819,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9837,7 +9924,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9880,7 +9967,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9922,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -9937,15 +10024,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9968,16 +10055,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10027,7 +10114,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10039,21 +10126,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10078,16 +10165,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10156,7 +10243,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10259,7 +10346,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10364,7 +10451,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10407,7 +10494,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10449,7 +10536,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -10464,15 +10551,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10498,13 +10585,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10554,7 +10641,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10566,21 +10653,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10605,16 +10692,16 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10683,7 +10770,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -10786,7 +10873,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -10891,7 +10978,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -10934,7 +11021,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10976,7 +11063,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -10991,15 +11078,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11022,16 +11109,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11081,7 +11168,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11093,21 +11180,21 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11132,14 +11219,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11208,7 +11295,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11311,7 +11398,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11416,7 +11503,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11459,7 +11546,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11501,7 +11588,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11516,15 +11603,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11547,13 +11634,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11604,7 +11691,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11616,21 +11703,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11655,16 +11742,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11733,7 +11820,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11836,7 +11923,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -11941,7 +12028,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11984,7 +12071,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12026,7 +12113,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -12041,15 +12128,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12072,16 +12159,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12131,7 +12218,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12143,21 +12230,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12182,14 +12269,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12258,7 +12345,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12361,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12372,7 +12459,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
@@ -12464,13 +12551,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12495,16 +12582,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12573,10 +12660,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12676,10 +12763,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12781,10 +12868,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12824,7 +12911,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12866,7 +12953,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -12881,15 +12968,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12912,16 +12999,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -12971,7 +13058,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12983,21 +13070,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13022,16 +13109,16 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13100,10 +13187,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13203,10 +13290,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13308,10 +13395,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13351,7 +13438,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13393,7 +13480,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13408,15 +13495,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13442,13 +13529,13 @@
         <v>87</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13498,7 +13585,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13510,21 +13597,21 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13549,16 +13636,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13627,10 +13714,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13730,10 +13817,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13835,10 +13922,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13878,7 +13965,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13920,7 +14007,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>86</v>
@@ -13935,15 +14022,15 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13966,16 +14053,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14025,7 +14112,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -14037,21 +14124,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14076,16 +14163,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14154,10 +14241,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14257,10 +14344,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14362,10 +14449,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14405,7 +14492,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14447,7 +14534,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>86</v>
@@ -14462,15 +14549,15 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14493,16 +14580,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14552,7 +14639,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14564,21 +14651,21 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14603,14 +14690,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14679,10 +14766,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14782,10 +14869,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14887,10 +14974,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14930,7 +15017,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14972,7 +15059,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -14987,15 +15074,15 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15018,13 +15105,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15075,7 +15162,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15087,21 +15174,21 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15126,16 +15213,16 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15204,10 +15291,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15307,10 +15394,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15412,10 +15499,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15455,7 +15542,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15497,7 +15584,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
@@ -15512,15 +15599,15 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15546,13 +15633,13 @@
         <v>87</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -15602,7 +15689,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -15614,21 +15701,21 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15653,16 +15740,16 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15731,10 +15818,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15834,10 +15921,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15939,10 +16026,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15982,7 +16069,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16024,7 +16111,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -16039,15 +16126,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16073,13 +16160,13 @@
         <v>87</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -16129,7 +16216,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16141,21 +16228,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16180,16 +16267,16 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16258,10 +16345,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16361,10 +16448,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16466,10 +16553,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16509,7 +16596,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16551,7 +16638,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16566,15 +16653,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16597,16 +16684,16 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -16656,7 +16743,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16668,21 +16755,21 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16707,14 +16794,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16783,10 +16870,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16886,10 +16973,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16991,10 +17078,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17034,7 +17121,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>301</v>
+        <v>445</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17076,7 +17163,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>86</v>
@@ -17091,15 +17178,15 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17122,13 +17209,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17179,7 +17266,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17191,21 +17278,21 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17230,14 +17317,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17306,10 +17393,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17409,10 +17496,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17514,10 +17601,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17557,7 +17644,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17599,7 +17686,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>86</v>
@@ -17614,15 +17701,15 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17645,13 +17732,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17702,7 +17789,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17714,15 +17801,15 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>114</v>
@@ -17765,7 +17852,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17807,7 +17894,7 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>86</v>
@@ -17822,15 +17909,15 @@
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17853,13 +17940,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17910,7 +17997,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17922,18 +18009,18 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18015,7 +18102,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>86</v>
@@ -18030,15 +18117,15 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18061,13 +18148,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -18118,7 +18205,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -18130,10 +18217,10 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Requirements.xlsx
+++ b/StructureDefinition-ext-R5-Requirements.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -586,15 +586,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -853,15 +844,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:purpose</t>
   </si>
   <si>
@@ -994,7 +976,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic)
 </t>
   </si>
   <si>
@@ -1065,7 +1047,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|Basic)
 </t>
   </si>
   <si>
@@ -1421,7 +1403,7 @@
     <t>Extension.extension:statement.extension:source.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1791,8 +1773,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5347,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5391,13 +5373,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5422,16 +5404,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5500,7 +5482,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5603,7 +5585,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5708,7 +5690,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5751,7 +5733,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5813,7 +5795,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5839,16 +5821,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5918,13 +5900,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5949,16 +5931,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6027,7 +6009,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6130,7 +6112,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6235,7 +6217,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6278,7 +6260,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6340,7 +6322,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6366,16 +6348,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6445,13 +6427,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6476,16 +6458,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6554,7 +6536,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6657,7 +6639,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6762,7 +6744,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6805,7 +6787,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6867,7 +6849,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6896,13 +6878,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6972,13 +6954,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7003,16 +6985,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7081,7 +7063,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7184,7 +7166,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7289,7 +7271,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7332,7 +7314,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7394,7 +7376,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7420,16 +7402,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7499,13 +7481,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7530,16 +7512,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7608,7 +7590,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7711,7 +7693,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7816,7 +7798,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7859,7 +7841,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7921,7 +7903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7947,16 +7929,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8026,13 +8008,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8057,16 +8039,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8135,7 +8117,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8238,7 +8220,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8343,7 +8325,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8386,7 +8368,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8448,7 +8430,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8474,16 +8456,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8553,13 +8535,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8584,16 +8566,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8662,7 +8644,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8765,7 +8747,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8870,7 +8852,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8913,7 +8895,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8975,7 +8957,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -9001,16 +8983,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9036,13 +9018,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9080,13 +9062,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9111,16 +9093,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9189,7 +9171,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9292,7 +9274,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9397,7 +9379,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9440,7 +9422,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9502,7 +9484,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9528,16 +9510,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9607,13 +9589,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9638,16 +9620,16 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9716,7 +9698,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9819,7 +9801,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9924,7 +9906,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9967,7 +9949,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10029,7 +10011,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10055,16 +10037,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10134,13 +10116,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10165,16 +10147,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10243,7 +10225,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10346,7 +10328,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10451,7 +10433,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10494,7 +10476,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10556,7 +10538,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10585,13 +10567,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10661,13 +10643,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10692,16 +10674,16 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10770,7 +10752,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -10873,7 +10855,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -10978,7 +10960,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -11021,7 +11003,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11083,7 +11065,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11109,16 +11091,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11188,13 +11170,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11219,14 +11201,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11295,7 +11277,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11398,7 +11380,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11503,7 +11485,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11546,7 +11528,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11608,7 +11590,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11634,13 +11616,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11711,13 +11693,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11742,16 +11724,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11820,7 +11802,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11923,7 +11905,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -12028,7 +12010,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12071,7 +12053,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12133,7 +12115,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12159,16 +12141,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12238,13 +12220,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12269,14 +12251,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12345,7 +12327,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12448,7 +12430,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12459,7 +12441,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
@@ -12551,13 +12533,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12582,16 +12564,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12660,10 +12642,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12763,10 +12745,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12868,10 +12850,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12911,7 +12893,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12973,10 +12955,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12999,16 +12981,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13078,13 +13060,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13109,16 +13091,16 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13187,10 +13169,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13290,10 +13272,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13395,10 +13377,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13438,7 +13420,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13500,10 +13482,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13529,13 +13511,13 @@
         <v>87</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13605,13 +13587,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13636,16 +13618,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13714,10 +13696,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13817,10 +13799,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13922,10 +13904,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13965,7 +13947,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14027,10 +14009,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14056,13 +14038,13 @@
         <v>182</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14132,13 +14114,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14163,16 +14145,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14241,10 +14223,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14344,10 +14326,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14449,10 +14431,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14492,7 +14474,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14554,10 +14536,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14580,16 +14562,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14659,13 +14641,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14690,14 +14672,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14766,10 +14748,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14869,10 +14851,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14974,10 +14956,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15017,7 +14999,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15079,10 +15061,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15105,13 +15087,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15182,13 +15164,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15213,16 +15195,16 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15291,10 +15273,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15394,10 +15376,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15499,10 +15481,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15542,7 +15524,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15604,10 +15586,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15633,13 +15615,13 @@
         <v>87</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -15709,13 +15691,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15740,16 +15722,16 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15818,10 +15800,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15921,10 +15903,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16026,10 +16008,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16069,7 +16051,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16131,10 +16113,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16160,13 +16142,13 @@
         <v>87</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -16236,13 +16218,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16267,16 +16249,16 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16345,10 +16327,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16448,10 +16430,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16553,10 +16535,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16596,7 +16578,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16658,10 +16640,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16684,16 +16666,16 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -16763,13 +16745,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16794,14 +16776,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16870,10 +16852,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16973,10 +16955,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17078,10 +17060,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17121,7 +17103,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17183,10 +17165,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17209,13 +17191,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17286,13 +17268,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17317,14 +17299,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17393,10 +17375,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17496,10 +17478,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17601,10 +17583,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17644,7 +17626,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17706,10 +17688,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17732,13 +17714,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17809,7 +17791,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>114</v>
@@ -17852,7 +17834,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17914,7 +17896,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>123</v>
@@ -17940,13 +17922,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -18148,13 +18130,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>

--- a/StructureDefinition-ext-R5-Requirements.xlsx
+++ b/StructureDefinition-ext-R5-Requirements.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5206" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,6 +482,12 @@
 Coding</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-algorithm-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -586,6 +592,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -976,7 +991,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1047,7 +1062,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|Basic)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1187,6 +1202,9 @@
     <t>Extension.extension:statement.extension:conformance.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-conformance-expectation-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:statement.extension:conditionality</t>
   </si>
   <si>
@@ -1403,7 +1421,7 @@
     <t>Extension.extension:statement.extension:source.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1773,8 +1791,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="27.3828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.44140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3748,13 +3766,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3792,13 +3808,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3823,16 +3839,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3901,7 +3917,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -4004,7 +4020,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4109,7 +4125,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4152,7 +4168,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4214,7 +4230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4243,13 +4259,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4319,13 +4335,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4350,16 +4366,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4428,7 +4444,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4531,7 +4547,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4636,7 +4652,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4679,7 +4695,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4770,13 +4786,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4846,13 +4862,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4877,16 +4893,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4955,7 +4971,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5058,7 +5074,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5163,7 +5179,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5206,7 +5222,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5284,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5294,16 +5310,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5329,13 +5345,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5373,13 +5389,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5404,16 +5420,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5482,7 +5498,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5585,7 +5601,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5690,7 +5706,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5733,7 +5749,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5811,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5821,16 +5837,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5900,13 +5916,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5931,16 +5947,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6009,7 +6025,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6112,7 +6128,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6217,7 +6233,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6260,7 +6276,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6322,7 +6338,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6348,16 +6364,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6427,13 +6443,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6458,16 +6474,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6552,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6639,7 +6655,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6744,7 +6760,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6787,7 +6803,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6849,7 +6865,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6878,13 +6894,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6954,13 +6970,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6985,16 +7001,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7063,7 +7079,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7166,7 +7182,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7271,7 +7287,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7314,7 +7330,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7376,7 +7392,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7402,16 +7418,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7481,13 +7497,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7512,16 +7528,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7590,7 +7606,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7693,7 +7709,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7798,7 +7814,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7841,7 +7857,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7903,7 +7919,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7929,16 +7945,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8008,13 +8024,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8039,16 +8055,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8117,7 +8133,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8220,7 +8236,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8325,7 +8341,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8368,7 +8384,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8430,7 +8446,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8456,16 +8472,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8535,13 +8551,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8566,16 +8582,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8644,7 +8660,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8747,7 +8763,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8852,7 +8868,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8895,7 +8911,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8957,7 +8973,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8983,16 +8999,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9062,13 +9078,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9093,16 +9109,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9187,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9274,7 +9290,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9379,7 +9395,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9422,7 +9438,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9484,7 +9500,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9510,16 +9526,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9589,13 +9605,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9620,16 +9636,16 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9698,7 +9714,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9801,7 +9817,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9906,7 +9922,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9949,7 +9965,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10011,7 +10027,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10037,16 +10053,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10116,13 +10132,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10147,16 +10163,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10225,7 +10241,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10328,7 +10344,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10433,7 +10449,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10476,7 +10492,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10538,7 +10554,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10567,13 +10583,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10643,13 +10659,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10674,16 +10690,16 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10752,7 +10768,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -10855,7 +10871,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -10960,7 +10976,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -11003,7 +11019,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11065,7 +11081,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11091,16 +11107,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11170,13 +11186,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11201,14 +11217,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11277,7 +11293,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11380,7 +11396,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11485,7 +11501,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11528,7 +11544,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11590,7 +11606,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11616,13 +11632,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11693,13 +11709,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11724,16 +11740,16 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11802,7 +11818,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11905,7 +11921,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -12010,7 +12026,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12053,7 +12069,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12115,7 +12131,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12141,16 +12157,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12220,13 +12236,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12251,14 +12267,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12327,7 +12343,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12430,7 +12446,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12441,7 +12457,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
@@ -12533,13 +12549,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12564,16 +12580,16 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12642,10 +12658,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12745,10 +12761,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12850,10 +12866,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12893,7 +12909,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12955,10 +12971,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12981,16 +12997,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13060,13 +13076,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13091,16 +13107,16 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13169,10 +13185,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13272,10 +13288,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13377,10 +13393,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13420,7 +13436,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13482,10 +13498,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13511,13 +13527,13 @@
         <v>87</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13587,13 +13603,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13618,16 +13634,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13696,10 +13712,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13799,10 +13815,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13904,10 +13920,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13947,7 +13963,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14009,10 +14025,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14035,16 +14051,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14070,13 +14086,11 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14114,13 +14128,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14145,16 +14159,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14223,10 +14237,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14326,10 +14340,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14431,10 +14445,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14474,7 +14488,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14536,10 +14550,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14562,16 +14576,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14641,13 +14655,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14672,14 +14686,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14748,10 +14762,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14851,10 +14865,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14956,10 +14970,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14999,7 +15013,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15061,10 +15075,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15087,13 +15101,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15164,13 +15178,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15195,16 +15209,16 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15273,10 +15287,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15376,10 +15390,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15481,10 +15495,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15524,7 +15538,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15586,10 +15600,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15615,13 +15629,13 @@
         <v>87</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -15691,13 +15705,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15722,16 +15736,16 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15800,10 +15814,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15903,10 +15917,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16008,10 +16022,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16051,7 +16065,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16113,10 +16127,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16142,13 +16156,13 @@
         <v>87</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -16218,13 +16232,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16249,16 +16263,16 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16327,10 +16341,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16430,10 +16444,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16535,10 +16549,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16578,7 +16592,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16640,10 +16654,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16666,16 +16680,16 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -16745,13 +16759,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16776,14 +16790,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16852,10 +16866,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16955,10 +16969,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17060,10 +17074,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17103,7 +17117,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17165,10 +17179,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17191,13 +17205,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17268,13 +17282,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17299,14 +17313,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17375,10 +17389,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17478,10 +17492,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17583,10 +17597,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17626,7 +17640,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17688,10 +17702,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17714,13 +17728,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17791,7 +17805,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>114</v>
@@ -17834,7 +17848,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17896,7 +17910,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>123</v>
@@ -17922,13 +17936,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -18130,13 +18144,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
